--- a/excel2word/test.xlsx
+++ b/excel2word/test.xlsx
@@ -1035,12 +1035,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 55'!$A$4:$A$15</f>
+              <f>'Question 55'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 55'!$B$4:$B$15</f>
+              <f>'Question 55'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -5160,12 +5160,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 78'!$A$4:$A$18</f>
+              <f>'Question 78'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 78'!$B$4:$B$18</f>
+              <f>'Question 78'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -5986,12 +5986,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 83'!$A$4:$A$8</f>
+              <f>'Question 83'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 83'!$B$4:$B$8</f>
+              <f>'Question 83'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -6316,12 +6316,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 85'!$A$4:$A$43</f>
+              <f>'Question 85'!$A$4:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 85'!$B$4:$B$43</f>
+              <f>'Question 85'!$B$4:$B$20</f>
             </numRef>
           </val>
         </ser>
@@ -6481,12 +6481,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 86'!$A$4:$A$44</f>
+              <f>'Question 86'!$A$4:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 86'!$B$4:$B$44</f>
+              <f>'Question 86'!$B$4:$B$20</f>
             </numRef>
           </val>
         </ser>
@@ -6646,12 +6646,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 87'!$A$4:$A$39</f>
+              <f>'Question 87'!$A$4:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 87'!$B$4:$B$39</f>
+              <f>'Question 87'!$B$4:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -6893,12 +6893,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 88'!$A$4:$A$48</f>
+              <f>'Question 88'!$A$4:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 88'!$B$4:$B$48</f>
+              <f>'Question 88'!$B$4:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -6976,12 +6976,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 89'!$A$4:$A$35</f>
+              <f>'Question 89'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 89'!$B$4:$B$35</f>
+              <f>'Question 89'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -7059,12 +7059,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 90'!$A$4:$A$35</f>
+              <f>'Question 90'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 90'!$B$4:$B$35</f>
+              <f>'Question 90'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -7142,12 +7142,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 91'!$A$4:$A$20</f>
+              <f>'Question 91'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 91'!$B$4:$B$20</f>
+              <f>'Question 91'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -10691,12 +10691,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 25'!$A$4:$A$20</f>
+              <f>'Question 25'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 25'!$B$4:$B$20</f>
+              <f>'Question 25'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -13166,12 +13166,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Question 39'!$A$4:$A$13</f>
+              <f>'Question 39'!$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Question 39'!$B$4:$B$13</f>
+              <f>'Question 39'!$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -22265,6 +22265,7 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -24414,6 +24415,7 @@
         <v>34</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -26817,6 +26819,7 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -30157,6 +30160,7 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -31121,6 +31125,7 @@
         <v>39</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -33117,6 +33122,7 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -33872,6 +33878,7 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
@@ -34494,6 +34501,7 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5"/>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
